--- a/2018_table2.xlsx
+++ b/2018_table2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gef\Documents\Python Scripts\DS Course Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E7C06F-A294-4767-9B2F-A489001E92FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38723A4E-0307-4616-9EBC-2B6C1CFA22AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="3960" windowWidth="33810" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5295" yWindow="3630" windowWidth="33810" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table2" sheetId="1" r:id="rId1"/>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164:B169"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -767,10 +767,7 @@
       <c r="F9" s="3">
         <v>276.3913943705769</v>
       </c>
-      <c r="G9" s="2">
-        <f>D9-F9</f>
-        <v>72.138078089105932</v>
-      </c>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
